--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1925.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1925.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.406267973689917</v>
+        <v>1.023799657821655</v>
       </c>
       <c r="B1">
-        <v>3.937548665113114</v>
+        <v>0.8841099143028259</v>
       </c>
       <c r="C1">
-        <v>2.205449796580234</v>
+        <v>0.7697933912277222</v>
       </c>
       <c r="D1">
-        <v>1.576416447683588</v>
+        <v>4.195941925048828</v>
       </c>
       <c r="E1">
-        <v>1.354038055803629</v>
+        <v>1.674144506454468</v>
       </c>
     </row>
   </sheetData>
